--- a/biology/Microbiologie/Anoplophryidae/Anoplophryidae.xlsx
+++ b/biology/Microbiologie/Anoplophryidae/Anoplophryidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anoplophryidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l’ordre des Astomatida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Anoplophrya, dérivé du grec ancien ανοπλ / anopl, « sans arme », et de οφρύς / ophrýs, « sourcil ⇒ cil ⇒ cilié », littéralement « cilié inerme », en référence aux premières descriptions de ce cilié, notamment celle de Kofoid en 1903, qui décrivait le genre comme « sans ventouses, crochets ou tiges internes », bien que plus tard, en 1910, Cépède décrivit des « Anoplophrya armés »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Anoplophrya, dérivé du grec ancien ανοπλ / anopl, « sans arme », et de οφρύς / ophrýs, « sourcil ⇒ cil ⇒ cilié », littéralement « cilié inerme », en référence aux premières descriptions de ce cilié, notamment celle de Kofoid en 1903, qui décrivait le genre comme « sans ventouses, crochets ou tiges internes », bien que plus tard, en 1910, Cépède décrivit des « Anoplophrya armés ».
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le genre type Anoplophrya a « un corps vermiforme allongé, cylindrique ou un peu aplati et rubané. Les deux extrémités sont plus ou moins arrondies, l'antérieure étant quelquefois plus large que la postérieure ». Ses cils sont grêles, longs, insérés selon des rangées longitudinales très rapprochées recouvrant le corps d'une manière uniforme. Les stries d'insertion ciliaire méridiennes, longitudinales, laissant entre elles un espace variable selon les espèces, mais en général assez faible.
 L'ectoplasme est clair et homogène.
@@ -553,7 +569,7 @@
 Ses mouvements sont assez rapides, de deux sortes : translation directe et progression par mouvements de rotation du corps autour de son axe longitudinal. On observe des changements de la forme du corps selon l'espace offert à l'Infusoire.
 Le processus de division est fonction de l'espèce : 
 par division transversale chez Anoplophrya naïdos, A. striata, A. alluri notamment ;
-par bourgeonnement caténulaire chez A. proliféra, A. nodulata, A. filum, A. maupasi[1].</t>
+par bourgeonnement caténulaire chez A. proliféra, A. nodulata, A. filum, A. maupasi.</t>
         </is>
       </c>
     </row>
@@ -581,17 +597,19 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anoplophrya vivent dans l'intestin de beaucoup d'animaux invertébrés :
 des vers annélides de diverses catégories taxonomiques :
 Polychètes comme Naïs serpentina (d) ;
-Oligochètes comme Lumbricus terrestris (Lombric commun), Aeolosoma[2] ou Périchœta ;
-Hirudinés comme Clepsine binoculata[3] ;
+Oligochètes comme Lumbricus terrestris (Lombric commun), Aeolosoma ou Périchœta ;
+Hirudinés comme Clepsine binoculata ;
 le mollusque gastéropode Paludina decisa (Paludine commune) ;
-le crustacé décapode Homarus gammarus (Homard européen)[1] ;
-peut-être chez le rotifère Noteus[4] et le bryozoaire Urnatella gracilis.
-La famille des Anoplophryidae a une répartition mondiale[5].
+le crustacé décapode Homarus gammarus (Homard européen) ;
+peut-être chez le rotifère Noteus et le bryozoaire Urnatella gracilis.
+La famille des Anoplophryidae a une répartition mondiale.
 </t>
         </is>
       </c>
@@ -620,9 +638,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (30 juillet 2023)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (30 juillet 2023) :
 Almophrya de Puytorac &amp; Dragesco, 1968
 Espèce type : Almophrya almae de Puytorac &amp; Dragesco, 1968
 Anoplophrya von Stein, 1860 genre type
@@ -631,7 +651,7 @@
 Lomiella Puytorac, 1961
 Lubetiella Puytorac, 1959
 Njinella Ngassam, 1983
-Selon Lynn (2008)[6] :
+Selon Lynn (2008) :
 Almophrya de Puytorac &amp; Dragesco, 1969
 Anoplophyra Stein, 1860
 Corlissiella de Puytorac, 1960
